--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41EF80C-052D-424C-9012-A0EE1CFC89D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A107F4-62E5-4F1E-8D5A-72A3D5BF7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18912" yWindow="3948" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="F1:H15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>(B8-$B$10)^2</f>
         <v>144</v>
       </c>
       <c r="L8">
@@ -916,6 +916,12 @@
       <c r="B11">
         <f>STDEV(B2:B9)</f>
         <v>15.991068935949395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>SUM(D2:D9)</f>
+        <v>1790</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A107F4-62E5-4F1E-8D5A-72A3D5BF7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B627F521-B9CB-4959-AD9F-924D78FC7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18912" yWindow="3948" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="10044" yWindow="3216" windowWidth="17532" windowHeight="12180" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,16 +127,16 @@
     <t>x1</t>
   </si>
   <si>
-    <t>x1-x`</t>
-  </si>
-  <si>
-    <t>x`</t>
-  </si>
-  <si>
-    <t>(x1-x`)^2</t>
-  </si>
-  <si>
-    <t>count</t>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>(x2-x2`)^2</t>
+  </si>
+  <si>
+    <t>(x1-x1`)^2</t>
   </si>
 </sst>
 </file>
@@ -227,10 +227,10 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,10 +246,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,11 +558,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018B34A1-188B-404F-919F-89AC1D92F424}">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -765,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">(B3-$B$10)^2</f>
+        <f t="shared" ref="D3:D7" si="0">(B3-$B$10)^2</f>
         <v>144</v>
       </c>
       <c r="G3">
@@ -1140,175 +1136,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070E678A-F987-429C-8D17-1B66DDD6CB22}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <f>$A$7-A2</f>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <f>POWER(A2-$A$7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>POWER(B2-$B$7,2)</f>
+        <v>10.240000000000002</v>
+      </c>
+      <c r="F2">
+        <f>POWER(C2-$C$7,2)</f>
+        <v>11.560000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="D2">
-        <f>C2*C2</f>
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <f>ROWS(D2:D6)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">$A$7-A3</f>
-        <v>2</v>
+      <c r="C3" s="5">
+        <v>10</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">C3*C3</f>
+        <f t="shared" ref="D3:D6" si="0">POWER(A3-$A$7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">POWER(B3-$B$7,2)</f>
+        <v>1.4400000000000004</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="2">POWER(C3-$C$7,2)</f>
+        <v>5.7600000000000016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <f>$A$7-A4</f>
-        <v>1</v>
+      <c r="C4" s="5">
+        <v>13</v>
       </c>
       <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>4.000000000000007E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.3599999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.2399999999999993</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>2.5599999999999987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="D5">
+      <c r="C6" s="5">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f>POWER(A6-$A$7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f>$A$7-A6</f>
-        <v>-4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+        <v>7.839999999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>12.959999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <f>AVERAGE(A2:A6)</f>
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f>SQRT(SUM(D2:D6)/(E2-1))</f>
-        <v>2.9154759474226504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <f>$A$13-A10</f>
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f>B10*B10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:B12" si="2">$A$13-A11</f>
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:C12" si="3">B11*B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f>AVERAGE(A10:A12)</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>SQRT(AVERAGE(C10:C12))</f>
-        <v>0.81649658092772603</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>12.4</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>22.800000000000004</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F2:F6)</f>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f>E7/F7</f>
+        <v>0.68674698795180733</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9A34F-7799-40CA-B621-51B771BA9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E480BF8-D61D-486D-91A2-EC08E6BDAC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21324" yWindow="0" windowWidth="17532" windowHeight="16656" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="14328" yWindow="2592" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -218,10 +219,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -230,7 +239,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4B96F4-2E63-45C0-8CAC-575FC582AFFE}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,13 +585,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="1">
@@ -600,13 +608,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -623,13 +631,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -646,13 +654,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -669,13 +677,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
       <c r="D6" s="1">
@@ -722,48 +730,48 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>0.96141215385243772</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>0.92431332957518331</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>0.84862665915036661</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>0.47650814397494828</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>5</v>
       </c>
     </row>
@@ -773,72 +781,70 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>5.5458799774510998</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>2.7729399887255499</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25">
         <v>12.21236611925411</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>7.5686670424816679E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>0.4541200225489001</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>0.22706001127445005</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -951,6 +957,307 @@
       </c>
       <c r="I32">
         <v>1.2483456820526295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE86C0-F413-470D-896E-496A8DBA68A0}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.5</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5.5</v>
+      </c>
+      <c r="C4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6.5</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.98456411975983404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.96936650591845686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.96323980710214818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1.9982134878078328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>631.75000000000011</v>
+      </c>
+      <c r="D22" s="7">
+        <v>631.75000000000011</v>
+      </c>
+      <c r="E22" s="7">
+        <v>158.22003577817532</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5.6387335487568289E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7">
+        <v>19.964285714285719</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3.9928571428571438</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8">
+        <v>651.71428571428578</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>-2.6785714285714235</v>
+      </c>
+      <c r="C27">
+        <v>4.2219965776917459</v>
+      </c>
+      <c r="D27">
+        <v>-0.63443240165671921</v>
+      </c>
+      <c r="E27">
+        <v>0.55368767526424201</v>
+      </c>
+      <c r="F27">
+        <v>-13.531559141304511</v>
+      </c>
+      <c r="G27">
+        <v>8.1744162841616639</v>
+      </c>
+      <c r="H27">
+        <v>-13.531559141304511</v>
+      </c>
+      <c r="I27">
+        <v>8.1744162841616639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>9.4999999999999982</v>
+      </c>
+      <c r="C28">
+        <v>0.75525370787921731</v>
+      </c>
+      <c r="D28">
+        <v>12.578554598131506</v>
+      </c>
+      <c r="E28">
+        <v>5.6387335487568391E-5</v>
+      </c>
+      <c r="F28">
+        <v>7.5585585372287065</v>
+      </c>
+      <c r="G28">
+        <v>11.441441462771291</v>
+      </c>
+      <c r="H28">
+        <v>7.5585585372287065</v>
+      </c>
+      <c r="I28">
+        <v>11.441441462771291</v>
       </c>
     </row>
   </sheetData>

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E480BF8-D61D-486D-91A2-EC08E6BDAC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994A1EF-13A7-4495-8BDF-A25040AAB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14328" yWindow="2592" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="10356" yWindow="0" windowWidth="17532" windowHeight="16656" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -136,13 +136,29 @@
   </si>
   <si>
     <t>r^2</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,14 +255,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +572,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,297 +982,423 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE86C0-F413-470D-896E-496A8DBA68A0}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="D2" s="1">
+        <f>POWER(C2-$C$9,2)</f>
+        <v>274.6122448979591</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2*$B$29+$B$28</f>
+        <v>35.321428571428569</v>
+      </c>
+      <c r="F2" s="1">
+        <f>POWER(E2-$C$9,2)</f>
+        <v>203.0625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>4.5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D8" si="0">POWER(C3-$C$9,2)</f>
+        <v>57.326530612244866</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="1">B3*$B$29+$B$28</f>
+        <v>40.071428571428569</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F8" si="2">POWER(E3-$C$9,2)</f>
+        <v>90.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>20.89795918367345</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>44.821428571428569</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>22.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>5.5</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0408163265306181</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>49.571428571428569</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.75510204081634</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>54.321428571428562</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>22.562499999999932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>6.5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>130.61224489795924</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>59.071428571428562</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>90.249999999999858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>154.4693877551021</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>63.821428571428562</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>203.0624999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>49.571428571428569</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>651.71428571428578</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <f>SUM(F2:F8)</f>
+        <v>631.74999999999955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <f>F9/D9</f>
+        <v>0.96936650591845597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B15">
         <v>0.98456411975983404</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B16">
         <v>0.96936650591845686</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B17">
         <v>0.96323980710214818</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B18">
         <v>1.9982134878078328</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="7">
-        <v>1</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
         <v>631.75000000000011</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23">
         <v>631.75000000000011</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23">
         <v>158.22003577817532</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23">
         <v>5.6387335487568289E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24">
         <v>5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24">
         <v>19.964285714285719</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24">
         <v>3.9928571428571438</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B25" s="3">
         <v>6</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="3">
         <v>651.71428571428578</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>22</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>-2.6785714285714235</v>
-      </c>
-      <c r="C27">
-        <v>4.2219965776917459</v>
-      </c>
-      <c r="D27">
-        <v>-0.63443240165671921</v>
-      </c>
-      <c r="E27">
-        <v>0.55368767526424201</v>
-      </c>
-      <c r="F27">
-        <v>-13.531559141304511</v>
-      </c>
-      <c r="G27">
-        <v>8.1744162841616639</v>
-      </c>
-      <c r="H27">
-        <v>-13.531559141304511</v>
-      </c>
-      <c r="I27">
-        <v>8.1744162841616639</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>-2.6785714285714235</v>
+      </c>
+      <c r="C28">
+        <v>4.2219965776917459</v>
+      </c>
+      <c r="D28">
+        <v>-0.63443240165671921</v>
+      </c>
+      <c r="E28">
+        <v>0.55368767526424201</v>
+      </c>
+      <c r="F28">
+        <v>-13.531559141304511</v>
+      </c>
+      <c r="G28">
+        <v>8.1744162841616639</v>
+      </c>
+      <c r="H28">
+        <v>-13.531559141304511</v>
+      </c>
+      <c r="I28">
+        <v>8.1744162841616639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>9.4999999999999982</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.75525370787921731</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>12.578554598131506</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>5.6387335487568391E-5</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>7.5585585372287065</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>11.441441462771291</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>7.5585585372287065</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>11.441441462771291</v>
       </c>
     </row>

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B994A1EF-13A7-4495-8BDF-A25040AAB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB21EE-09BF-438E-BAEE-DA30D6BDB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10356" yWindow="0" windowWidth="17532" windowHeight="16656" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="2328" yWindow="1644" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -152,6 +153,9 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>X Variable 3</t>
   </si>
 </sst>
 </file>
@@ -243,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +259,14 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,10 +993,382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067BEFB-99BB-4337-B18A-1C9048FB3FBE}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>8</v>
+      </c>
+      <c r="G1">
+        <f>1.1542+B1+C1</f>
+        <v>8.1541999999999994</v>
+      </c>
+      <c r="H1">
+        <f>$B$23+$B$25*B1+$B$26*C1</f>
+        <v>7.9999999999999956</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <f>1.1542+B2+C2</f>
+        <v>32.154200000000003</v>
+      </c>
+      <c r="H2">
+        <f>$B$23+$B$25*B2+$B$26*C2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <f>1.1542+B3+C3</f>
+        <v>74.154200000000003</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H2:H4" si="0">$B$23+$B$25*B3+$B$26*C3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>143</v>
+      </c>
+      <c r="G4">
+        <f>1.1542+B4+C4</f>
+        <v>134.1542</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2.4424906541753444E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10449</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3483</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8.757475121841169E+32</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5.9657605957339018E-30</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.9657605957339018E-30</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10449</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="7">
+        <v>-2.0000000000000071</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6.6780163025591171E-15</v>
+      </c>
+      <c r="D23" s="7">
+        <v>-299490134403172.5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.125678609201084E-15</v>
+      </c>
+      <c r="F23" s="7">
+        <v>-2.0000000000000919</v>
+      </c>
+      <c r="G23" s="7">
+        <v>-1.9999999999999223</v>
+      </c>
+      <c r="H23" s="7">
+        <v>-2.0000000000000919</v>
+      </c>
+      <c r="I23" s="7">
+        <v>-1.9999999999999223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>65535</v>
+      </c>
+      <c r="E24" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.3569392523196356E-16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7369526662969903</v>
+      </c>
+      <c r="E25" s="7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1.8012058863339108E-15</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1110367235180818.9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5.7334164067252075E-16</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1.999999999999978</v>
+      </c>
+      <c r="G26" s="8">
+        <v>2.000000000000024</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1.999999999999978</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2.000000000000024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE86C0-F413-470D-896E-496A8DBA68A0}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB21EE-09BF-438E-BAEE-DA30D6BDB830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA9E5B-658B-49ED-9106-704B90F2A78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="1644" windowWidth="17532" windowHeight="12180" activeTab="1" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="9456" yWindow="2352" windowWidth="17532" windowHeight="12180" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -156,6 +157,9 @@
   </si>
   <si>
     <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>X Variable 4</t>
   </si>
 </sst>
 </file>
@@ -195,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,14 +269,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,370 +996,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067BEFB-99BB-4337-B18A-1C9048FB3FBE}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DE75F-8331-45B4-A7EC-9EE78106A552}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C1">
+      <c r="B6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.7763568394002505E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="G1">
-        <f>1.1542+B1+C1</f>
-        <v>8.1541999999999994</v>
-      </c>
-      <c r="H1">
-        <f>$B$23+$B$25*B1+$B$26*C1</f>
-        <v>7.9999999999999956</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="C12">
+        <v>162</v>
+      </c>
+      <c r="D12">
+        <v>40.5</v>
+      </c>
+      <c r="E12">
+        <v>5.1339849309243291E+31</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3.1554436208840472E-30</v>
+      </c>
+      <c r="D13">
+        <v>3.1554436208840472E-30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>162</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1.9638363766907457E-15</v>
+      </c>
+      <c r="D17">
+        <v>2036829568632590</v>
+      </c>
+      <c r="E17">
+        <v>3.1255426677400957E-16</v>
+      </c>
+      <c r="F17">
+        <v>3.9999999999999751</v>
+      </c>
+      <c r="G17">
+        <v>4.0000000000000249</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>65535</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>4.1869132231567339E-16</v>
+      </c>
+      <c r="D19">
+        <v>7165183131591493</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19">
+        <v>2.9999999999999947</v>
+      </c>
+      <c r="G19">
+        <v>3.0000000000000053</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>65535</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G2">
-        <f>1.1542+B2+C2</f>
-        <v>32.154200000000003</v>
-      </c>
-      <c r="H2">
-        <f>$B$23+$B$25*B2+$B$26*C2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>64</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <f>1.1542+B3+C3</f>
-        <v>74.154200000000003</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H2:H4" si="0">$B$23+$B$25*B3+$B$26*C3</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>143</v>
-      </c>
-      <c r="G4">
-        <f>1.1542+B4+C4</f>
-        <v>134.1542</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2.4424906541753444E-15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10449</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3483</v>
-      </c>
-      <c r="E18" s="7">
-        <v>8.757475121841169E+32</v>
-      </c>
-      <c r="F18" s="7" t="e">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="3" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5.9657605957339018E-30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5.9657605957339018E-30</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8">
-        <v>10449</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="7">
-        <v>-2.0000000000000071</v>
-      </c>
-      <c r="C23" s="7">
-        <v>6.6780163025591171E-15</v>
-      </c>
-      <c r="D23" s="7">
-        <v>-299490134403172.5</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2.125678609201084E-15</v>
-      </c>
-      <c r="F23" s="7">
-        <v>-2.0000000000000919</v>
-      </c>
-      <c r="G23" s="7">
-        <v>-1.9999999999999223</v>
-      </c>
-      <c r="H23" s="7">
-        <v>-2.0000000000000919</v>
-      </c>
-      <c r="I23" s="7">
-        <v>-1.9999999999999223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>65535</v>
-      </c>
-      <c r="E24" s="7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1.3569392523196356E-16</v>
-      </c>
-      <c r="D25" s="7">
-        <v>7369526662969903</v>
-      </c>
-      <c r="E25" s="7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1.0000000000000018</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.99999999999999822</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1.0000000000000018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2.0000000000000009</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1.8012058863339108E-15</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1110367235180818.9</v>
-      </c>
-      <c r="E26" s="8">
-        <v>5.7334164067252075E-16</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1.999999999999978</v>
-      </c>
-      <c r="G26" s="8">
-        <v>2.000000000000024</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1.999999999999978</v>
-      </c>
-      <c r="I26" s="8">
-        <v>2.000000000000024</v>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1365,6 +1307,99 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067BEFB-99BB-4337-B18A-1C9048FB3FBE}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7">
+        <f>SUM(A1:D1)</f>
+        <v>7</v>
+      </c>
+      <c r="F1">
+        <f t="shared" ref="F1:F3" si="0">0+3*C1</f>
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <f>1.5+1.5*D1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E3" si="1">SUM(A2:D2)</f>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2" si="2">1.5+1.5*D2</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <f>1.5+1.5*D3</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCE86C0-F413-470D-896E-496A8DBA68A0}">
   <dimension ref="A1:I29"/>
   <sheetViews>

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CA9E5B-658B-49ED-9106-704B90F2A78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE6066-27C7-44D5-AA01-CAACD319629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9456" yWindow="2352" windowWidth="17532" windowHeight="12180" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="10308" yWindow="2844" windowWidth="17532" windowHeight="12180" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1330,11 +1330,11 @@
         <v>3</v>
       </c>
       <c r="E1" s="7">
-        <f>SUM(A1:D1)</f>
-        <v>7</v>
+        <f>SUM(B1:D1)</f>
+        <v>6</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1:F3" si="0">0+3*C1</f>
+        <f>0+3*C1</f>
         <v>6</v>
       </c>
       <c r="G1">
@@ -1356,15 +1356,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="7">
-        <f t="shared" ref="E2:E3" si="1">SUM(A2:D2)</f>
-        <v>16</v>
+        <f>SUM(B2:D2)</f>
+        <v>15</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F1:F3" si="0">0+3*C2</f>
         <v>15</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2" si="2">1.5+1.5*D2</f>
+        <f t="shared" ref="G2" si="1">1.5+1.5*D2</f>
         <v>10.5</v>
       </c>
     </row>
@@ -1382,8 +1382,8 @@
         <v>9</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>SUM(B3:D3)</f>
+        <v>24</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>

--- a/programs/frameworks/neural/data/foo.xlsx
+++ b/programs/frameworks/neural/data/foo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\neural\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE6066-27C7-44D5-AA01-CAACD319629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE521D-6DD8-41A3-8C33-9C6FD602411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10308" yWindow="2844" windowWidth="17532" windowHeight="12180" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
+    <workbookView xWindow="2567" yWindow="2567" windowWidth="17280" windowHeight="10033" activeTab="2" xr2:uid="{CE27312B-821B-431B-B816-C73003EBA2B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>X Variable 4</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -587,15 +590,15 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -615,7 +618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -638,7 +641,7 @@
         <v>1.4399999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -661,7 +664,7 @@
         <v>0.3599999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -684,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -707,7 +710,7 @@
         <v>0.3599999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -718,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>POWER(C6-$C$7,2)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -730,7 +733,7 @@
         <v>1.4400000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C7" s="1">
         <f>AVERAGE(C2:C6)</f>
         <v>4</v>
@@ -745,7 +748,7 @@
         <v>3.5999999999999988</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C9" t="s">
         <v>32</v>
       </c>
@@ -754,19 +757,19 @@
         <v>0.59999999999999976</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -774,7 +777,7 @@
         <v>0.96141215385243772</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -782,7 +785,7 @@
         <v>0.92431332957518331</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -790,7 +793,7 @@
         <v>0.84862665915036661</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -798,7 +801,7 @@
         <v>0.47650814397494828</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -806,12 +809,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -829,7 +832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -849,7 +852,7 @@
         <v>7.5686670424816679E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -863,7 +866,7 @@
         <v>0.22706001127445005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -877,7 +880,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -903,7 +906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -932,7 +935,7 @@
         <v>4.3503193618156315</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1003,21 +1006,21 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1025,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>1.7763568394002505E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,12 +1060,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1080,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>3.1554436208840472E-30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1131,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1156,7 +1159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1308,90 +1311,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E067BEFB-99BB-4337-B18A-1C9048FB3FBE}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="1">
         <v>3</v>
-      </c>
-      <c r="E1" s="7">
-        <f>SUM(B1:D1)</f>
-        <v>6</v>
-      </c>
-      <c r="F1">
-        <f>0+3*C1</f>
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <f>1.5+1.5*D1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(B2:D2)</f>
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F1:F3" si="0">0+3*C2</f>
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2" si="1">1.5+1.5*D2</f>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <f>POWER(E2-$E$5,2)</f>
+        <v>81</v>
+      </c>
+      <c r="G2" s="1">
+        <f>1.5*B2+1.5*D2</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <f>POWER(G2-$E$5,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7">
         <f>SUM(B3:D3)</f>
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
+        <f>POWER(E3-$E$5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="0">1.5*B3+1.5*D3</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <f>POWER(G3-$E$5,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUM(B4:D4)</f>
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="1">
+        <f>POWER(E4-$E$5,2)</f>
+        <v>81</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G3">
-        <f>1.5+1.5*D3</f>
+      <c r="H4" s="1">
+        <f>POWER(G4-$E$5,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="E5">
+        <f>AVERAGE(E2:E4)</f>
         <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUM(F2:F4)</f>
+        <v>162</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <f>SUM(H2:H4)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f>H5/F5</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1407,9 +1457,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1429,7 +1479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1452,7 +1502,7 @@
         <v>203.0625</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1475,7 +1525,7 @@
         <v>90.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1498,7 +1548,7 @@
         <v>22.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1521,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1544,7 +1594,7 @@
         <v>22.562499999999932</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1567,7 +1617,7 @@
         <v>90.249999999999858</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1590,7 +1640,7 @@
         <v>203.0624999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C9" s="1">
         <f>AVERAGE(C2:C8)</f>
         <v>49.571428571428569</v>
@@ -1605,7 +1655,7 @@
         <v>631.74999999999955</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.350000000000001" x14ac:dyDescent="0.5">
       <c r="E11" t="s">
         <v>33</v>
       </c>
@@ -1614,19 +1664,19 @@
         <v>0.96936650591845597</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1684,7 @@
         <v>0.98456411975983404</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>0.96936650591845686</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1700,7 @@
         <v>0.96323980710214818</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1658,7 +1708,7 @@
         <v>1.9982134878078328</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1666,12 +1716,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>12</v>
@@ -1689,7 +1739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1709,7 +1759,7 @@
         <v>5.6387335487568289E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1723,7 +1773,7 @@
         <v>3.9928571428571438</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1787,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
         <v>17</v>
       </c>
@@ -1763,7 +1813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +1842,7 @@
         <v>8.1744162841616639</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>24</v>
       </c>
